--- a/OCR_res.xlsx
+++ b/OCR_res.xlsx
@@ -590,7 +590,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORD00944971_01</t>
+          <t>ORD00948851_01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -610,17 +610,17 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01.03.2023</t>
+          <t>17/05/2023</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>15.06.2023</t>
+          <t>15/07/2023</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>29.06.2023</t>
+          <t>29/07/2023</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
@@ -631,7 +631,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0 , 3 8</t>
+          <t>0 , 7 7</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr"/>
@@ -641,85 +641,89 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ORD00944971_01</t>
+          <t>ORD00948851_01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRE00944971</t>
+          <t>PRE00948851</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 340136</t>
+          <t>264252</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> b Packaging &amp; party</t>
+          <t>a Toys</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tatuaże Halloween 305646</t>
+          <t>masa plastyczna uzupełniacz 4 tuby</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Costume Girl</t>
+          <t>Modelling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NON PROMO</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>NON PROMO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10302</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AW23</t>
+          <t>AW23</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> B/GL</t>
+          <t>NOS/Y</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> STYLE GENERAL FEA1 ­ P&amp;P ­ AW23</t>
+          <t>General colour card - STA - AW15</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PIC00124</t>
+          <t>PIC00122</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CK BRANDS LIMITED</t>
+          <t>CK BRANDS LIMITED</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> D012594</t>
+          <t>D012594</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30</t>
+          <t>30</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -732,12 +736,12 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Port in Slovenia</t>
+          <t>Port in Poland</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0018</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -752,13 +756,13 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>12:00:00 am</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>22080</t>
+          <t>5690</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -768,17 +772,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2200434013692</t>
+          <t>2201126425298</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr"/>
